--- a/IS330 - Database & Data Analysis/PROJECT/DOCUMENTATION/Now Where Did I Leave Off Project.xlsx
+++ b/IS330 - Database & Data Analysis/PROJECT/DOCUMENTATION/Now Where Did I Leave Off Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\REPOSITORIES\school\IS330 - Database &amp; Data Analysis\PROJECT\DOCUMENTATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E409AAB-DDB4-429E-9682-A2AAB008DBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA31E995-9A46-4343-8D39-B0428B7F39B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="30" windowWidth="19185" windowHeight="21000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57600" yWindow="30" windowWidth="19200" windowHeight="21000" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WIRE FRAME" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,12 @@
     <sheet name="SCRAP PAPER" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="109">
   <si>
     <t>The now where did I leave off tracker</t>
   </si>
@@ -325,6 +321,36 @@
   </si>
   <si>
     <t xml:space="preserve">   trackerID INT PRIMARY KEY auto_increment,</t>
+  </si>
+  <si>
+    <t>(1, 1,),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        (1, 2,),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        (1, 3,),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        (1, 4,),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        (1, 5,),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        (1, 6,),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        (1, 7,),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        (1, 8,),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        (1, 9,),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        (1, 10,),</t>
   </si>
 </sst>
 </file>
@@ -1661,7 +1687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:F18"/>
     </sheetView>
   </sheetViews>
@@ -2372,7 +2398,7 @@
   <dimension ref="B2:I28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="C35" sqref="C35:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2569,15 +2595,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC89BF4E-C19B-482B-A06C-2B3154812110}">
-  <dimension ref="B3:F64"/>
+  <dimension ref="B3:L64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
@@ -2586,7 +2612,7 @@
       <c r="E3" s="32"/>
       <c r="F3" s="33"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
         <v>17</v>
       </c>
@@ -2603,56 +2629,81 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
       <c r="F5" s="39"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
       <c r="F6" s="33"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
       <c r="F7" s="33"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
       <c r="F8" s="33"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
       <c r="F9" s="33"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
       <c r="F10" s="33"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
       <c r="F11" s="33"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="36" t="s">
         <v>22</v>
       </c>
@@ -2660,8 +2711,11 @@
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="36" t="s">
         <v>23</v>
       </c>
@@ -2677,13 +2731,19 @@
       <c r="F15" s="36" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
       <c r="E16" s="36"/>
       <c r="F16" s="36"/>
+      <c r="L16" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="36"/>

--- a/IS330 - Database & Data Analysis/PROJECT/DOCUMENTATION/Now Where Did I Leave Off Project.xlsx
+++ b/IS330 - Database & Data Analysis/PROJECT/DOCUMENTATION/Now Where Did I Leave Off Project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\REPOSITORIES\school\IS330 - Database &amp; Data Analysis\PROJECT\DOCUMENTATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA31E995-9A46-4343-8D39-B0428B7F39B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59CC2E2-79D1-46C6-8A22-00980ADA8B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57600" yWindow="30" windowWidth="19200" windowHeight="21000" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39180" yWindow="1815" windowWidth="28800" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WIRE FRAME" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="SCRAP PAPER" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1363,7 +1362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
@@ -2597,7 +2596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC89BF4E-C19B-482B-A06C-2B3154812110}">
   <dimension ref="B3:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7:L16"/>
     </sheetView>
   </sheetViews>

--- a/IS330 - Database & Data Analysis/PROJECT/DOCUMENTATION/Now Where Did I Leave Off Project.xlsx
+++ b/IS330 - Database & Data Analysis/PROJECT/DOCUMENTATION/Now Where Did I Leave Off Project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\project\DOCUMENTATION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Project\DOCUMENTATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78967800-7104-4AFF-A4BB-81A86E5A6FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845C1B2D-E504-4F2C-9E6B-E8FCF18C361C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-90" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WIRE FRAME" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="141">
   <si>
     <t>The now where did I leave off tracker</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Last Episode Watched:</t>
   </si>
   <si>
-    <t>Series Synop</t>
-  </si>
-  <si>
     <t>Percent Watched</t>
   </si>
   <si>
@@ -448,6 +445,12 @@
   </si>
   <si>
     <t xml:space="preserve">    PHP code to take form data and store into seriesTags table ???</t>
+  </si>
+  <si>
+    <t>Episode Synop</t>
+  </si>
+  <si>
+    <t>Episode Title</t>
   </si>
 </sst>
 </file>
@@ -890,13 +893,6 @@
   </cellStyleXfs>
   <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1046,6 +1042,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1436,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,1013 +1462,1015 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
+      <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="N3" s="59" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="54"/>
+      <c r="I4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="I2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="N3" s="62" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="64" t="s">
-        <v>125</v>
-      </c>
-      <c r="G4" s="57"/>
-      <c r="I4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" t="s">
+      <c r="G5" s="54"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="65" t="s">
+    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" t="s">
+      <c r="G6" s="55"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="12"/>
+      <c r="M6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="I7" s="13"/>
+      <c r="L7" s="14"/>
+      <c r="M7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="G6" s="58"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="15"/>
-      <c r="M6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="G7" s="56"/>
-      <c r="I7" s="16"/>
-      <c r="L7" s="17"/>
-      <c r="M7" t="s">
-        <v>134</v>
-      </c>
-    </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8" s="56"/>
-      <c r="I8" s="16"/>
+      <c r="B8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="53"/>
+      <c r="I8" s="13"/>
       <c r="J8" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="17"/>
+      <c r="L8" s="14"/>
       <c r="M8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="56"/>
-      <c r="I9" s="16"/>
-      <c r="L9" s="17"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="53"/>
+      <c r="I9" s="13"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
+      <c r="B10" s="13"/>
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="56"/>
-      <c r="I10" s="16"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="53"/>
+      <c r="I10" s="13"/>
       <c r="J10" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="17"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="56"/>
-      <c r="I11" s="16"/>
-      <c r="L11" s="17"/>
+      <c r="B11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="53"/>
+      <c r="I11" s="13"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="59"/>
-      <c r="I12" s="22"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="56"/>
+      <c r="I12" s="19"/>
       <c r="J12" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="21"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="I13" s="13"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="15"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="I13" s="10"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="23" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="26"/>
-      <c r="L14" s="15"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="56"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="14"/>
-      <c r="L15" s="17"/>
+      <c r="B15" s="13"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="53"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="11"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="56"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="L16" s="17"/>
+      <c r="B16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="53"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="56"/>
-      <c r="I17" s="16"/>
-      <c r="L17" s="17"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="53"/>
+      <c r="I17" s="13"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="56"/>
-      <c r="I18" s="16"/>
-      <c r="L18" s="17"/>
+      <c r="B18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="53"/>
+      <c r="I18" s="13"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="56"/>
-      <c r="I19" s="16"/>
-      <c r="L19" s="17"/>
+      <c r="B19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="53"/>
+      <c r="I19" s="13"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="27"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="56"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="28"/>
-      <c r="L20" s="17"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="24"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="53"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="25"/>
+      <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="29"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="56"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="30"/>
-      <c r="L21" s="17"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="26"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="53"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="27"/>
+      <c r="L21" s="14"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="56"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="34"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="53"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="31"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="29"/>
-      <c r="F23" s="68"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="26"/>
+      <c r="F23" s="65"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F24" s="68"/>
+      <c r="F24" s="65"/>
     </row>
     <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
+      <c r="A25" s="34"/>
       <c r="B25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="65"/>
+      <c r="I25" t="s">
         <v>118</v>
       </c>
-      <c r="F25" s="68"/>
-      <c r="I25" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="64" t="s">
-        <v>118</v>
-      </c>
-      <c r="G26" s="56"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="64" t="s">
-        <v>118</v>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="53"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="61" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="69" t="s">
-        <v>133</v>
-      </c>
-      <c r="G27" s="60"/>
-      <c r="I27" s="2" t="s">
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="57"/>
+      <c r="I27" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="69" t="s">
-        <v>133</v>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="66" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="G28" s="60"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="69" t="s">
-        <v>127</v>
+      <c r="A28" s="6"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="57"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="66" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="39" t="s">
+      <c r="A29" s="6"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="69" t="s">
+      <c r="D29" s="36"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" s="57"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="36"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="G29" s="60"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="K29" s="39"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="69" t="s">
+      <c r="G30" s="58"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="66" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="G30" s="61"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="69" t="s">
-        <v>139</v>
-      </c>
-    </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="13"/>
       <c r="C31" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="56"/>
-      <c r="I31" s="16"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="53"/>
+      <c r="I31" s="13"/>
       <c r="J31" t="s">
         <v>8</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="61" t="s">
-        <v>136</v>
+      <c r="L31" s="14"/>
+      <c r="M31" s="58" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="16"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="56"/>
-      <c r="I32" s="16"/>
-      <c r="L32" s="17"/>
+      <c r="B32" s="13"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="53"/>
+      <c r="I32" s="13"/>
+      <c r="L32" s="14"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="16"/>
+      <c r="B33" s="13"/>
       <c r="C33" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="56"/>
-      <c r="I33" s="16"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="53"/>
+      <c r="I33" s="13"/>
       <c r="J33" t="s">
         <v>10</v>
       </c>
-      <c r="L33" s="17"/>
+      <c r="L33" s="14"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="16"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="56"/>
-      <c r="I34" s="16"/>
-      <c r="L34" s="17"/>
+      <c r="B34" s="13"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="53"/>
+      <c r="I34" s="13"/>
+      <c r="L34" s="14"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="16"/>
+      <c r="B35" s="13"/>
       <c r="C35" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="56"/>
-      <c r="I35" s="16"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="53"/>
+      <c r="I35" s="13"/>
       <c r="J35" t="s">
         <v>12</v>
       </c>
-      <c r="L35" s="17"/>
+      <c r="L35" s="14"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="60"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="24"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="57"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="21"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="13"/>
-      <c r="C37" s="14" t="s">
+      <c r="B37" s="10"/>
+      <c r="C37" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="26" t="s">
+      <c r="D37" s="23"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="L37" s="15"/>
+      <c r="L37" s="12"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="15"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="12"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="16"/>
+      <c r="B39" s="13"/>
       <c r="D39" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="56"/>
-      <c r="I39" s="16"/>
-      <c r="L39" s="17"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="53"/>
+      <c r="I39" s="13"/>
+      <c r="L39" s="14"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="16"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="56"/>
-      <c r="I40" s="16"/>
-      <c r="L40" s="17"/>
+      <c r="B40" s="13"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="53"/>
+      <c r="I40" s="13"/>
+      <c r="L40" s="14"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="16"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="56"/>
-      <c r="I41" s="16"/>
-      <c r="L41" s="17"/>
+      <c r="B41" s="13"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="53"/>
+      <c r="I41" s="13"/>
+      <c r="L41" s="14"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="16"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="56"/>
-      <c r="I42" s="16"/>
-      <c r="L42" s="17"/>
+      <c r="B42" s="13"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="53"/>
+      <c r="I42" s="13"/>
+      <c r="L42" s="14"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="16"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="56"/>
-      <c r="I43" s="16"/>
-      <c r="L43" s="17"/>
+      <c r="B43" s="13"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="53"/>
+      <c r="I43" s="13"/>
+      <c r="L43" s="14"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="22"/>
-      <c r="C44" s="28"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="56"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="28"/>
-      <c r="L44" s="17"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="25"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="53"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="25"/>
+      <c r="L44" s="14"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="13"/>
-      <c r="C45" s="30"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="56"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="30"/>
-      <c r="L45" s="17"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="27"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="53"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="27"/>
+      <c r="L45" s="14"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="35"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="56"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="34"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="53"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="31"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F47" s="68"/>
+      <c r="F47" s="65"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F48" s="68"/>
+      <c r="F48" s="65"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
+        <v>119</v>
+      </c>
+      <c r="F49" s="65"/>
+      <c r="I49" t="s">
         <v>120</v>
       </c>
-      <c r="F49" s="68"/>
-      <c r="I49" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="5"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="56"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="7"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="53"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="4"/>
     </row>
     <row r="51" spans="2:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="60"/>
-      <c r="I51" s="2" t="s">
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="57"/>
+      <c r="I51" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="67"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="60"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="57"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="67"/>
+      <c r="K52" s="67"/>
+      <c r="L52" s="67"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="38"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="60"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="40"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="57"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="37"/>
     </row>
     <row r="54" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B54" s="13"/>
-      <c r="C54" s="14" t="s">
+      <c r="B54" s="10"/>
+      <c r="C54" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="11"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="61"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="15"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="12"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="16"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="56"/>
-      <c r="I55" s="16"/>
-      <c r="L55" s="17"/>
+      <c r="B55" s="13"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="53"/>
+      <c r="I55" s="13"/>
+      <c r="L55" s="14"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="16"/>
+      <c r="B56" s="13"/>
       <c r="C56" t="s">
         <v>16</v>
       </c>
       <c r="D56" t="s">
         <v>17</v>
       </c>
-      <c r="E56" s="17"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="56"/>
-      <c r="I56" s="16"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="53"/>
+      <c r="I56" s="13"/>
       <c r="J56" t="s">
         <v>18</v>
       </c>
       <c r="K56" t="s">
         <v>19</v>
       </c>
-      <c r="L56" s="17"/>
+      <c r="L56" s="14"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="16"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="56"/>
-      <c r="I57" s="16"/>
+      <c r="B57" s="13"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="53"/>
+      <c r="I57" s="13"/>
       <c r="K57" t="s">
         <v>20</v>
       </c>
-      <c r="L57" s="17"/>
+      <c r="L57" s="14"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="16"/>
+      <c r="B58" s="13"/>
       <c r="C58" t="s">
         <v>21</v>
       </c>
-      <c r="E58" s="17"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="56"/>
-      <c r="I58" s="16"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="53"/>
+      <c r="I58" s="13"/>
       <c r="K58" t="s">
         <v>22</v>
       </c>
-      <c r="L58" s="17"/>
+      <c r="L58" s="14"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="16"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="56"/>
-      <c r="I59" s="16"/>
+      <c r="B59" s="13"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="53"/>
+      <c r="I59" s="13"/>
       <c r="K59" t="s">
         <v>23</v>
       </c>
-      <c r="L59" s="17"/>
+      <c r="L59" s="14"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="22"/>
-      <c r="C60" s="23" t="s">
+      <c r="B60" s="19"/>
+      <c r="C60" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="23"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="69"/>
-      <c r="G60" s="60"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="24"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="57"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="21"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="13"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="61"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="15"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="58"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="12"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="13"/>
-      <c r="C62" s="14" t="s">
+      <c r="B62" s="10"/>
+      <c r="C62" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="26"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="61"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="15"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="58"/>
+      <c r="G62" s="58"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="12"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="16"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="56"/>
-      <c r="I63" s="16"/>
-      <c r="L63" s="17"/>
+      <c r="B63" s="13"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="53"/>
+      <c r="I63" s="13"/>
+      <c r="L63" s="14"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="16"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="56"/>
-      <c r="I64" s="16"/>
-      <c r="L64" s="17"/>
+      <c r="B64" s="13"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="53"/>
+      <c r="I64" s="13"/>
+      <c r="L64" s="14"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="16"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="56"/>
-      <c r="I65" s="16"/>
-      <c r="L65" s="17"/>
+      <c r="B65" s="13"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="53"/>
+      <c r="I65" s="13"/>
+      <c r="L65" s="14"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="16"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="56"/>
-      <c r="I66" s="16"/>
-      <c r="L66" s="17"/>
+      <c r="B66" s="13"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="53"/>
+      <c r="I66" s="13"/>
+      <c r="L66" s="14"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="16"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="56"/>
-      <c r="I67" s="16"/>
-      <c r="L67" s="17"/>
+      <c r="B67" s="13"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="53"/>
+      <c r="I67" s="13"/>
+      <c r="L67" s="14"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B68" s="22"/>
-      <c r="C68" s="28"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="56"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="28"/>
-      <c r="L68" s="17"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="25"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="53"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="25"/>
+      <c r="L68" s="14"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="13"/>
-      <c r="C69" s="30"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="56"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="30"/>
-      <c r="L69" s="17"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="27"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="61"/>
+      <c r="G69" s="53"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="27"/>
+      <c r="L69" s="14"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="35"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="64"/>
-      <c r="G70" s="56"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="36"/>
-      <c r="K70" s="33"/>
-      <c r="L70" s="34"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="61"/>
+      <c r="G70" s="53"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="31"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F71" s="68"/>
+      <c r="F71" s="65"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>122</v>
-      </c>
-      <c r="F72" s="68"/>
+        <v>121</v>
+      </c>
+      <c r="F72" s="65"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B73" s="5"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="56"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="53"/>
     </row>
     <row r="74" spans="2:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="69"/>
-      <c r="G74" s="60"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="57"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="69"/>
-      <c r="G75" s="60"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="57"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B76" s="38"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="69"/>
-      <c r="G76" s="60"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="57"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B77" s="13"/>
-      <c r="C77" s="41" t="s">
+      <c r="B77" s="10"/>
+      <c r="C77" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D77" s="42" t="s">
+      <c r="D77" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E77" s="15"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="61"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="58"/>
+      <c r="G77" s="58"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B78" s="16"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="56"/>
+      <c r="B78" s="13"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="53"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B79" s="16"/>
-      <c r="C79" s="1" t="s">
+      <c r="B79" s="13"/>
+      <c r="C79" s="68" t="s">
         <v>28</v>
       </c>
       <c r="D79" t="s">
         <v>29</v>
       </c>
-      <c r="E79" s="17"/>
-      <c r="F79" s="64"/>
-      <c r="G79" s="56"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="61"/>
+      <c r="G79" s="53"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="16"/>
-      <c r="C80" s="1"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="64"/>
-      <c r="G80" s="56"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="68"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="61"/>
+      <c r="G80" s="53"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="16"/>
-      <c r="C81" s="1"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="68"/>
       <c r="D81" t="s">
         <v>30</v>
       </c>
-      <c r="E81" s="17"/>
-      <c r="F81" s="64"/>
-      <c r="G81" s="56"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="61"/>
+      <c r="G81" s="53"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="16"/>
-      <c r="C82" s="1"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="64"/>
-      <c r="G82" s="56"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="68"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="61"/>
+      <c r="G82" s="53"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B83" s="22"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="23" t="s">
+      <c r="B83" s="19"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E83" s="21"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="57"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="10"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="58"/>
+      <c r="G84" s="58"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="10"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E85" s="12"/>
+      <c r="F85" s="58"/>
+      <c r="G85" s="58"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="13"/>
+      <c r="C86" s="68"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="61"/>
+      <c r="G86" s="53"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="13"/>
+      <c r="C87" s="68"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="61"/>
+      <c r="G87" s="53"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="13"/>
+      <c r="C88" s="68"/>
+      <c r="D88" t="s">
         <v>31</v>
       </c>
-      <c r="E83" s="24"/>
-      <c r="F83" s="69"/>
-      <c r="G83" s="60"/>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="13"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="61"/>
-      <c r="G84" s="61"/>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="13"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="61"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="16"/>
-      <c r="C86" s="1"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="64"/>
-      <c r="G86" s="56"/>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="16"/>
-      <c r="C87" s="1"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="64"/>
-      <c r="G87" s="56"/>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="16"/>
-      <c r="C88" s="1"/>
-      <c r="D88" t="s">
-        <v>32</v>
-      </c>
-      <c r="E88" s="17"/>
-      <c r="F88" s="64"/>
-      <c r="G88" s="56"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="61"/>
+      <c r="G88" s="53"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="16"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="64"/>
-      <c r="G89" s="56"/>
+      <c r="B89" s="13"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="61"/>
+      <c r="G89" s="53"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="16"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="64"/>
-      <c r="G90" s="56"/>
+      <c r="B90" s="13"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="61"/>
+      <c r="G90" s="53"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="22"/>
-      <c r="C91" s="28"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="64"/>
-      <c r="G91" s="56"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="25"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="61"/>
+      <c r="G91" s="53"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="13"/>
-      <c r="C92" s="30"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="64"/>
-      <c r="G92" s="56"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="27"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="61"/>
+      <c r="G92" s="53"/>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="35"/>
-      <c r="C93" s="36"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="34"/>
-      <c r="F93" s="64"/>
-      <c r="G93" s="56"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="61"/>
+      <c r="G93" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2532,666 +2537,666 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B4" s="40" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
+      <c r="M4" s="42"/>
+      <c r="V4" s="43"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="M4" s="45"/>
-      <c r="V4" s="46"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="43" t="s">
+      <c r="C5" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="D5" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="E5" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="F5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="M5" s="42"/>
+      <c r="V5" s="43"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B6" s="40">
+        <v>1</v>
+      </c>
+      <c r="C6" s="40">
+        <v>1</v>
+      </c>
+      <c r="D6" s="40">
+        <v>1</v>
+      </c>
+      <c r="E6" s="40">
+        <v>2</v>
+      </c>
+      <c r="F6" s="47"/>
+      <c r="M6" s="42"/>
+      <c r="V6" s="43"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="40">
+        <v>2</v>
+      </c>
+      <c r="C7" s="40">
+        <v>1</v>
+      </c>
+      <c r="D7" s="40">
+        <v>2</v>
+      </c>
+      <c r="E7" s="40">
+        <v>5</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="M7" s="42"/>
+      <c r="V7" s="43"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="40">
+        <v>3</v>
+      </c>
+      <c r="C8" s="40">
+        <v>1</v>
+      </c>
+      <c r="D8" s="40">
+        <v>4</v>
+      </c>
+      <c r="E8" s="40">
+        <v>11</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="M8" s="42"/>
+      <c r="V8" s="43"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="40">
+        <v>4</v>
+      </c>
+      <c r="C9" s="40">
+        <v>2</v>
+      </c>
+      <c r="D9" s="40">
+        <v>3</v>
+      </c>
+      <c r="E9" s="40">
+        <v>8</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="V9" s="43"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
+      <c r="V10" s="43"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
+      <c r="V11" s="43"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
+      <c r="V12" s="43"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="45"/>
-      <c r="V5" s="46"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="43">
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="44">
         <v>1</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C17" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="44">
+        <v>2</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="48"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="48">
         <v>1</v>
       </c>
-      <c r="D6" s="43">
+      <c r="C24" s="48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="48">
+        <v>2</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="48">
+        <v>3</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="45">
         <v>1</v>
       </c>
-      <c r="E6" s="43">
+      <c r="C31" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="45">
         <v>2</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="M6" s="45"/>
-      <c r="V6" s="46"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="43">
+      <c r="C32" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="45">
+        <v>3</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="45">
+        <v>4</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="49"/>
+      <c r="C42" s="49">
+        <v>1</v>
+      </c>
+      <c r="D42" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="49"/>
+      <c r="C43" s="49">
         <v>2</v>
       </c>
-      <c r="C7" s="43">
+      <c r="D43" s="49">
         <v>1</v>
       </c>
-      <c r="D7" s="43">
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="49"/>
+      <c r="C44" s="49">
+        <v>3</v>
+      </c>
+      <c r="D44" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="49"/>
+      <c r="C45" s="49">
+        <v>4</v>
+      </c>
+      <c r="D45" s="49">
         <v>2</v>
       </c>
-      <c r="E7" s="43">
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="52"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="G52" s="52"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="46">
+        <v>1</v>
+      </c>
+      <c r="C53" s="46">
+        <v>1</v>
+      </c>
+      <c r="D53" s="46">
+        <v>1</v>
+      </c>
+      <c r="E53" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G53" s="52"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="46">
+        <v>2</v>
+      </c>
+      <c r="C54" s="46">
+        <v>1</v>
+      </c>
+      <c r="D54" s="46">
+        <v>2</v>
+      </c>
+      <c r="E54" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G54" s="52"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="46">
+        <v>3</v>
+      </c>
+      <c r="C55" s="46">
+        <v>1</v>
+      </c>
+      <c r="D55" s="46">
+        <v>3</v>
+      </c>
+      <c r="E55" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G55" s="52"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="46">
+        <v>4</v>
+      </c>
+      <c r="C56" s="46">
+        <v>2</v>
+      </c>
+      <c r="D56" s="46">
+        <v>1</v>
+      </c>
+      <c r="E56" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G56" s="52"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="46">
         <v>5</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="M7" s="45"/>
-      <c r="V7" s="46"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="43">
+      <c r="C57" s="46">
+        <v>2</v>
+      </c>
+      <c r="D57" s="46">
+        <v>2</v>
+      </c>
+      <c r="E57" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="F57" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G57" s="52"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="46">
+        <v>6</v>
+      </c>
+      <c r="C58" s="46">
+        <v>2</v>
+      </c>
+      <c r="D58" s="46">
         <v>3</v>
       </c>
-      <c r="C8" s="43">
+      <c r="E58" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G58" s="52"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="46">
+        <v>7</v>
+      </c>
+      <c r="C59" s="46">
+        <v>3</v>
+      </c>
+      <c r="D59" s="46">
         <v>1</v>
       </c>
-      <c r="D8" s="43">
+      <c r="E59" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="F59" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G59" s="52"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="46">
+        <v>8</v>
+      </c>
+      <c r="C60" s="46">
+        <v>3</v>
+      </c>
+      <c r="D60" s="46">
+        <v>2</v>
+      </c>
+      <c r="E60" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G60" s="52"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="46">
+        <v>9</v>
+      </c>
+      <c r="C61" s="46">
+        <v>3</v>
+      </c>
+      <c r="D61" s="46">
+        <v>3</v>
+      </c>
+      <c r="E61" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="F61" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G61" s="52"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="46">
+        <v>10</v>
+      </c>
+      <c r="C62" s="46">
         <v>4</v>
       </c>
-      <c r="E8" s="43">
+      <c r="D62" s="46">
+        <v>1</v>
+      </c>
+      <c r="E62" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="F62" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G62" s="52"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="46">
         <v>11</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="M8" s="45"/>
-      <c r="V8" s="46"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="43">
+      <c r="C63" s="46">
         <v>4</v>
       </c>
-      <c r="C9" s="43">
+      <c r="D63" s="46">
         <v>2</v>
       </c>
-      <c r="D9" s="43">
+      <c r="E63" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="F63" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G63" s="52"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="46">
+        <v>12</v>
+      </c>
+      <c r="C64" s="46">
+        <v>4</v>
+      </c>
+      <c r="D64" s="46">
         <v>3</v>
       </c>
-      <c r="E9" s="43">
-        <v>8</v>
-      </c>
-      <c r="F9" s="44"/>
-      <c r="V9" s="46"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="44"/>
-      <c r="V10" s="46"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
-      <c r="V11" s="46"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44"/>
-      <c r="V12" s="46"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="47">
-        <v>1</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="47">
-        <v>2</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="47" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="51"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="51">
-        <v>1</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="51">
-        <v>2</v>
-      </c>
-      <c r="C25" s="51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="51">
-        <v>3</v>
-      </c>
-      <c r="C26" s="51" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="48">
-        <v>1</v>
-      </c>
-      <c r="C31" s="48" t="s">
+      <c r="E64" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="48">
-        <v>2</v>
-      </c>
-      <c r="C32" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="48">
-        <v>3</v>
-      </c>
-      <c r="C33" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="48">
-        <v>4</v>
-      </c>
-      <c r="C34" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" s="53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="52"/>
-      <c r="C42" s="52">
-        <v>1</v>
-      </c>
-      <c r="D42" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="52"/>
-      <c r="C43" s="52">
-        <v>2</v>
-      </c>
-      <c r="D43" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="52"/>
-      <c r="C44" s="52">
-        <v>3</v>
-      </c>
-      <c r="D44" s="52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="52"/>
-      <c r="C45" s="52">
-        <v>4</v>
-      </c>
-      <c r="D45" s="52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="52"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="52"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="55"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="E52" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="F52" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="G52" s="55"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="49">
-        <v>1</v>
-      </c>
-      <c r="C53" s="49">
-        <v>1</v>
-      </c>
-      <c r="D53" s="49">
-        <v>1</v>
-      </c>
-      <c r="E53" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="F53" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="G53" s="55"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="49">
-        <v>2</v>
-      </c>
-      <c r="C54" s="49">
-        <v>1</v>
-      </c>
-      <c r="D54" s="49">
-        <v>2</v>
-      </c>
-      <c r="E54" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="F54" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="G54" s="55"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="49">
-        <v>3</v>
-      </c>
-      <c r="C55" s="49">
-        <v>1</v>
-      </c>
-      <c r="D55" s="49">
-        <v>3</v>
-      </c>
-      <c r="E55" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="F55" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="G55" s="55"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="49">
-        <v>4</v>
-      </c>
-      <c r="C56" s="49">
-        <v>2</v>
-      </c>
-      <c r="D56" s="49">
-        <v>1</v>
-      </c>
-      <c r="E56" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="F56" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="G56" s="55"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="49">
-        <v>5</v>
-      </c>
-      <c r="C57" s="49">
-        <v>2</v>
-      </c>
-      <c r="D57" s="49">
-        <v>2</v>
-      </c>
-      <c r="E57" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="F57" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="G57" s="55"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="49">
-        <v>6</v>
-      </c>
-      <c r="C58" s="49">
-        <v>2</v>
-      </c>
-      <c r="D58" s="49">
-        <v>3</v>
-      </c>
-      <c r="E58" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="F58" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="G58" s="55"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="49">
-        <v>7</v>
-      </c>
-      <c r="C59" s="49">
-        <v>3</v>
-      </c>
-      <c r="D59" s="49">
-        <v>1</v>
-      </c>
-      <c r="E59" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="F59" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="G59" s="55"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="49">
-        <v>8</v>
-      </c>
-      <c r="C60" s="49">
-        <v>3</v>
-      </c>
-      <c r="D60" s="49">
-        <v>2</v>
-      </c>
-      <c r="E60" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="F60" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="G60" s="55"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="49">
-        <v>9</v>
-      </c>
-      <c r="C61" s="49">
-        <v>3</v>
-      </c>
-      <c r="D61" s="49">
-        <v>3</v>
-      </c>
-      <c r="E61" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="F61" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="G61" s="55"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="49">
-        <v>10</v>
-      </c>
-      <c r="C62" s="49">
-        <v>4</v>
-      </c>
-      <c r="D62" s="49">
-        <v>1</v>
-      </c>
-      <c r="E62" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="F62" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="G62" s="55"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="49">
-        <v>11</v>
-      </c>
-      <c r="C63" s="49">
-        <v>4</v>
-      </c>
-      <c r="D63" s="49">
-        <v>2</v>
-      </c>
-      <c r="E63" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="F63" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="G63" s="55"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="49">
-        <v>12</v>
-      </c>
-      <c r="C64" s="49">
-        <v>4</v>
-      </c>
-      <c r="D64" s="49">
-        <v>3</v>
-      </c>
-      <c r="E64" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="F64" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="G64" s="55"/>
+      <c r="F64" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G64" s="52"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="49">
+      <c r="B65" s="46">
         <v>13</v>
       </c>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="55"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="52"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3217,186 +3222,186 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" t="s">
         <v>79</v>
-      </c>
-      <c r="I2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" t="s">
         <v>81</v>
-      </c>
-      <c r="I3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" t="s">
         <v>83</v>
-      </c>
-      <c r="I4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" t="s">
         <v>85</v>
-      </c>
-      <c r="I5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" t="s">
         <v>87</v>
-      </c>
-      <c r="I6" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" t="s">
         <v>89</v>
-      </c>
-      <c r="I7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" t="s">
         <v>92</v>
-      </c>
-      <c r="I10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" t="s">
         <v>94</v>
-      </c>
-      <c r="I11" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" t="s">
         <v>96</v>
-      </c>
-      <c r="I12" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" t="s">
         <v>100</v>
-      </c>
-      <c r="I15" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" t="s">
         <v>102</v>
-      </c>
-      <c r="I16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" t="s">
         <v>106</v>
-      </c>
-      <c r="I19" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" t="s">
         <v>108</v>
-      </c>
-      <c r="I20" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" t="s">
         <v>110</v>
-      </c>
-      <c r="I21" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
